--- a/plantilla_def.xlsx
+++ b/plantilla_def.xlsx
@@ -744,7 +744,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,18 +788,6 @@
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="&quot;Google Sans&quot;"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -888,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="44">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -911,9 +899,6 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,31 +929,22 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -977,52 +953,31 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -1038,16 +993,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,40 +1315,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="49" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="51" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="50" width="39.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="52" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="52" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="50" width="32.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="49" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="53" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="52" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="52" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="50" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="50" width="45.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="38" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="40" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="39" width="39.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="41" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="41" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="39" width="32.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="39" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="43" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="43" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="43" width="45.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="96.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="78.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1406,7 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1457,10 +1415,10 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="5" t="s">
@@ -1485,1905 +1443,1905 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="11">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="10">
         <v>39561</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="16">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="15">
         <v>-27285474</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="16">
         <v>-55916571</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19" t="s">
+      <c r="U2" s="11"/>
+      <c r="V2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="21">
+      <c r="W2" s="18">
         <v>1181613</v>
       </c>
-      <c r="X2" s="21">
+      <c r="X2" s="18">
         <v>1433</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AC2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AD2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="12"/>
+      <c r="AE2" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="11">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="10">
         <v>39742</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>1963</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="23">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="20">
         <v>-25218241</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="21">
         <v>-57417544</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20" t="s">
+      <c r="S3" s="11"/>
+      <c r="T3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="18">
         <v>3342994</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="18">
         <v>1666</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Y3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="Z3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AB3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AC3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AD3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AE3" s="12"/>
+      <c r="AE3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="11">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="10">
         <v>40743</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <v>-22343947</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="21">
         <v>-60054487</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20" t="s">
+      <c r="S4" s="11"/>
+      <c r="T4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="18">
         <v>1379833</v>
       </c>
-      <c r="X4" s="21">
+      <c r="X4" s="18">
         <v>6630</v>
       </c>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19" t="s">
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AA4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AB4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="26" t="s">
+      <c r="AC4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AD4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AE4" s="12"/>
+      <c r="AE4" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="42">
-      <c r="A5" s="27">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="44.25">
+      <c r="A5" s="23">
         <v>44446</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>1991</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="16">
+      <c r="O5" s="24"/>
+      <c r="P5" s="15">
         <v>-25278246</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="21">
         <v>-57177720</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="S5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="26" t="s">
+      <c r="T5" s="26"/>
+      <c r="U5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="V5" s="26" t="s">
+      <c r="V5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="27">
         <v>3472580</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="27">
         <v>14318</v>
       </c>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="32" t="s">
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AA5" s="32" t="s">
+      <c r="AA5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="AB5" s="32" t="s">
+      <c r="AB5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AC5" s="19" t="s">
+      <c r="AC5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AD5" s="32" t="s">
+      <c r="AD5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AE5" s="12"/>
+      <c r="AE5" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="11">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="10">
         <v>40960</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="16">
+      <c r="O6" s="14"/>
+      <c r="P6" s="15">
         <v>-27282767</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="21">
         <v>-55868491</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="20" t="s">
+      <c r="S6" s="11"/>
+      <c r="T6" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="V6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="21">
+      <c r="W6" s="18">
         <v>2700661</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="18">
         <v>7845</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Y6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="Z6" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AC6" s="26" t="s">
+      <c r="AC6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AE6" s="12"/>
+      <c r="AE6" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>40193</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="16">
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="15">
         <v>-25347142</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="21">
         <v>-57624642</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20" t="s">
+      <c r="S7" s="11"/>
+      <c r="T7" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="U7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V7" s="19" t="s">
+      <c r="V7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W7" s="18">
         <v>3369367</v>
       </c>
-      <c r="X7" s="21">
+      <c r="X7" s="18">
         <v>1872</v>
       </c>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19" t="s">
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AA7" s="19" t="s">
+      <c r="AA7" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AB7" s="19" t="s">
+      <c r="AB7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC7" s="19" t="s">
+      <c r="AC7" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AD7" s="19" t="s">
+      <c r="AD7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AE7" s="12"/>
+      <c r="AE7" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>39843</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>1938</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="16">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15">
         <v>-25623782</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="21">
         <v>-57151003</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="20" t="s">
+      <c r="S8" s="11"/>
+      <c r="T8" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="V8" s="19" t="s">
+      <c r="V8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W8" s="21">
+      <c r="W8" s="18">
         <v>2806673</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X8" s="18">
         <v>1986</v>
       </c>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19" t="s">
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="AA8" s="19" t="s">
+      <c r="AA8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="AB8" s="19" t="s">
+      <c r="AB8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AC8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="12"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>42830</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>1964</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="23">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="20">
         <v>-25287430</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="21">
         <v>-57666551</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="20" t="s">
+      <c r="S9" s="11"/>
+      <c r="T9" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="U9" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="V9" s="19" t="s">
+      <c r="V9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W9" s="21">
+      <c r="W9" s="18">
         <v>1493430</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X9" s="18">
         <v>1639</v>
       </c>
-      <c r="Y9" s="19" t="s">
+      <c r="Y9" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="Z9" s="19" t="s">
+      <c r="Z9" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AA9" s="19" t="s">
+      <c r="AA9" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AB9" s="19" t="s">
+      <c r="AB9" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="AC9" s="19" t="s">
+      <c r="AC9" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="12"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>39993</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="18">
         <v>1968</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="16">
+      <c r="O10" s="11"/>
+      <c r="P10" s="15">
         <v>-25348488</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="21">
         <v>-57438006</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="S10" s="19"/>
-      <c r="T10" s="20" t="s">
+      <c r="S10" s="11"/>
+      <c r="T10" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V10" s="19" t="s">
+      <c r="V10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W10" s="21">
+      <c r="W10" s="18">
         <v>1525377</v>
       </c>
-      <c r="X10" s="21">
+      <c r="X10" s="18">
         <v>2915</v>
       </c>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19" t="s">
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AA10" s="19" t="s">
+      <c r="AA10" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AB10" s="19" t="s">
+      <c r="AB10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC10" s="19" t="s">
+      <c r="AC10" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AD10" s="19" t="s">
+      <c r="AD10" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="AE10" s="12"/>
+      <c r="AE10" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>42165</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="16">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="15">
         <v>-20230426</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="21">
         <v>-58169092</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="R11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="30" t="s">
+      <c r="S11" s="11"/>
+      <c r="T11" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="U11" s="34" t="s">
+      <c r="U11" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="V11" s="19"/>
-      <c r="W11" s="21">
+      <c r="V11" s="11"/>
+      <c r="W11" s="18">
         <v>2314550</v>
       </c>
-      <c r="X11" s="21">
+      <c r="X11" s="18">
         <v>10136</v>
       </c>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19" t="s">
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="AA11" s="19" t="s">
+      <c r="AA11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AB11" s="19" t="s">
+      <c r="AB11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC11" s="19" t="s">
+      <c r="AC11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AD11" s="19" t="s">
+      <c r="AD11" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AE11" s="12"/>
+      <c r="AE11" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>43888</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="15">
         <v>-25083245</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="21">
         <v>-57526387</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="T12" s="35"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19" t="s">
+      <c r="T12" s="28"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="W12" s="36">
+      <c r="W12" s="29">
         <v>1375387</v>
       </c>
-      <c r="X12" s="21">
+      <c r="X12" s="18">
         <v>13378</v>
       </c>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19" t="s">
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AA12" s="19" t="s">
+      <c r="AA12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AB12" s="19" t="s">
+      <c r="AB12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC12" s="19" t="s">
+      <c r="AC12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="12"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>44105</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="29" t="s">
+      <c r="K13" s="11"/>
+      <c r="L13" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12" t="s">
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="15">
         <v>-22117712</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="21">
         <v>-59903648</v>
       </c>
-      <c r="R13" s="19" t="s">
+      <c r="R13" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="S13" s="19" t="s">
+      <c r="S13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="U13" s="19" t="s">
+      <c r="U13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="V13" s="19" t="s">
+      <c r="V13" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="W13" s="21">
+      <c r="W13" s="18">
         <v>3953825</v>
       </c>
-      <c r="X13" s="36">
+      <c r="X13" s="29">
         <v>13604</v>
       </c>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="34" t="s">
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="AA13" s="34" t="s">
+      <c r="AA13" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="AB13" s="19" t="s">
+      <c r="AB13" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AC13" s="19" t="s">
+      <c r="AC13" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AD13" s="19" t="s">
+      <c r="AD13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AE13" s="12"/>
+      <c r="AE13" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>43206</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="16">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="15">
         <v>-27336706</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="16">
         <v>-57638399</v>
       </c>
-      <c r="R14" s="19" t="s">
+      <c r="R14" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="S14" s="19"/>
-      <c r="T14" s="20" t="s">
+      <c r="S14" s="11"/>
+      <c r="T14" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19" t="s">
+      <c r="U14" s="11"/>
+      <c r="V14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="21">
+      <c r="W14" s="18">
         <v>3389444</v>
       </c>
-      <c r="X14" s="21">
+      <c r="X14" s="18">
         <v>12010</v>
       </c>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19" t="s">
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AA14" s="19" t="s">
+      <c r="AA14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="AB14" s="19" t="s">
+      <c r="AB14" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="AC14" s="19" t="s">
+      <c r="AC14" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AD14" s="19" t="s">
+      <c r="AD14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AE14" s="12"/>
+      <c r="AE14" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>40982</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="16">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="15">
         <v>-25239752</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="21">
         <v>-57479209</v>
       </c>
-      <c r="R15" s="19" t="s">
+      <c r="R15" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="S15" s="19"/>
-      <c r="T15" s="20" t="s">
+      <c r="S15" s="11"/>
+      <c r="T15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19" t="s">
+      <c r="U15" s="11"/>
+      <c r="V15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="W15" s="21">
+      <c r="W15" s="18">
         <v>2349304</v>
       </c>
-      <c r="X15" s="21">
+      <c r="X15" s="18">
         <v>7933</v>
       </c>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19" t="s">
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AA15" s="19" t="s">
+      <c r="AA15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AB15" s="19" t="s">
+      <c r="AB15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC15" s="19" t="s">
+      <c r="AC15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AD15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AE15" s="12"/>
+      <c r="AE15" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="11">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="31.5">
+      <c r="A16" s="10">
         <v>44145</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12" t="s">
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12" t="s">
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="15">
         <v>-22646528</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="21">
         <v>-60110384</v>
       </c>
-      <c r="R16" s="18" t="s">
+      <c r="R16" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="S16" s="34" t="s">
+      <c r="S16" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="T16" s="35"/>
-      <c r="U16" s="19" t="s">
+      <c r="T16" s="28"/>
+      <c r="U16" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="V16" s="19" t="s">
+      <c r="V16" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="W16" s="21">
+      <c r="W16" s="18">
         <v>1270950</v>
       </c>
-      <c r="X16" s="36">
+      <c r="X16" s="29">
         <v>13626</v>
       </c>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19" t="s">
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="AA16" s="19" t="s">
+      <c r="AA16" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="AB16" s="19" t="s">
+      <c r="AB16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC16" s="19" t="s">
+      <c r="AC16" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="AD16" s="19" t="s">
+      <c r="AD16" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AE16" s="12"/>
+      <c r="AE16" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>40542</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="15">
         <v>-23031507</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="21">
         <v>-59664901</v>
       </c>
-      <c r="R17" s="19" t="s">
+      <c r="R17" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="S17" s="19"/>
-      <c r="T17" s="20" t="s">
+      <c r="S17" s="11"/>
+      <c r="T17" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="21">
+      <c r="V17" s="11"/>
+      <c r="W17" s="18">
         <v>1678809</v>
       </c>
-      <c r="X17" s="21">
+      <c r="X17" s="18">
         <v>5995</v>
       </c>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19" t="s">
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AB17" s="19" t="s">
+      <c r="AB17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC17" s="26" t="s">
+      <c r="AC17" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AD17" s="19" t="s">
+      <c r="AD17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AE17" s="12"/>
+      <c r="AE17" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>42691</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16">
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15">
         <v>-25501095</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="21">
         <v>-57565706</v>
       </c>
-      <c r="R18" s="19" t="s">
+      <c r="R18" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="19"/>
-      <c r="T18" s="20" t="s">
+      <c r="S18" s="11"/>
+      <c r="T18" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19" t="s">
+      <c r="U18" s="11"/>
+      <c r="V18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="21">
+      <c r="W18" s="18">
         <v>1576774</v>
       </c>
-      <c r="X18" s="21">
+      <c r="X18" s="18">
         <v>10901</v>
       </c>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19" t="s">
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="AA18" s="19" t="s">
+      <c r="AA18" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="AB18" s="19" t="s">
+      <c r="AB18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC18" s="26" t="s">
+      <c r="AC18" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="12"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>42104</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="16">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="15">
         <v>-25302880</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="21">
         <v>-57644000</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="R19" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="S19" s="19"/>
-      <c r="T19" s="20" t="s">
+      <c r="S19" s="11"/>
+      <c r="T19" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19" t="s">
+      <c r="U19" s="11"/>
+      <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="21">
+      <c r="W19" s="18">
         <v>1176722</v>
       </c>
-      <c r="X19" s="21">
+      <c r="X19" s="18">
         <v>9910</v>
       </c>
-      <c r="Y19" s="19" t="s">
+      <c r="Y19" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="Z19" s="19" t="s">
+      <c r="Z19" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="AA19" s="19" t="s">
+      <c r="AA19" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="AB19" s="19" t="s">
+      <c r="AB19" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="AC19" s="19" t="s">
+      <c r="AC19" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AD19" s="19" t="s">
+      <c r="AD19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AE19" s="12"/>
+      <c r="AE19" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>40779</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="18">
         <v>1957</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16">
+      <c r="O20" s="14"/>
+      <c r="P20" s="15">
         <v>-25690741</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="21">
         <v>-56469095</v>
       </c>
-      <c r="R20" s="19" t="s">
+      <c r="R20" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="S20" s="19"/>
-      <c r="T20" s="20" t="s">
+      <c r="S20" s="11"/>
+      <c r="T20" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="U20" s="19" t="s">
+      <c r="U20" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="V20" s="19" t="s">
+      <c r="V20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="21">
+      <c r="W20" s="18">
         <v>2655471</v>
       </c>
-      <c r="X20" s="21">
+      <c r="X20" s="18">
         <v>7269</v>
       </c>
-      <c r="Y20" s="19" t="s">
+      <c r="Y20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Z20" s="19" t="s">
+      <c r="Z20" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="AA20" s="19" t="s">
+      <c r="AA20" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="AB20" s="19" t="s">
+      <c r="AB20" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AC20" s="26" t="s">
+      <c r="AC20" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AD20" s="19" t="s">
+      <c r="AD20" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AE20" s="12"/>
+      <c r="AE20" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="15"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
